--- a/seeds.xlsx
+++ b/seeds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54ED8C7E-EE40-E44D-8510-7FA371FF60CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E201D6-AC09-EF45-A8FE-FCF7E658BD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{26B6D7A3-B0B4-BD4A-9FEE-141654290B1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Seed</t>
   </si>
@@ -66,19 +66,13 @@
   </si>
   <si>
     <t>1 pinch</t>
-  </si>
-  <si>
-    <t>2 pinch</t>
-  </si>
-  <si>
-    <t>3 pinch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,14 +87,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,12 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,61 +486,62 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="327" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="37" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
